--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N2">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q2">
-        <v>0.9259785428199713</v>
+        <v>1.825133965249555</v>
       </c>
       <c r="R2">
-        <v>0.9259785428199713</v>
+        <v>16.426205687246</v>
       </c>
       <c r="S2">
-        <v>0.0004661985497732314</v>
+        <v>0.0008515786086793733</v>
       </c>
       <c r="T2">
-        <v>0.0004661985497732314</v>
+        <v>0.0008515786086793732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N3">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q3">
-        <v>16.46969678747106</v>
+        <v>17.42648350035155</v>
       </c>
       <c r="R3">
-        <v>16.46969678747106</v>
+        <v>156.838351503164</v>
       </c>
       <c r="S3">
-        <v>0.00829192945890609</v>
+        <v>0.008130921267126993</v>
       </c>
       <c r="T3">
-        <v>0.00829192945890609</v>
+        <v>0.008130921267126993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N4">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q4">
-        <v>0.8966188151728574</v>
+        <v>1.097740077891333</v>
       </c>
       <c r="R4">
-        <v>0.8966188151728574</v>
+        <v>9.879660701021999</v>
       </c>
       <c r="S4">
-        <v>0.0004514169303102816</v>
+        <v>0.0005121881385262967</v>
       </c>
       <c r="T4">
-        <v>0.0004514169303102816</v>
+        <v>0.0005121881385262966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N5">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q5">
-        <v>10.68666957650052</v>
+        <v>12.18587425214267</v>
       </c>
       <c r="R5">
-        <v>10.68666957650052</v>
+        <v>109.672868269284</v>
       </c>
       <c r="S5">
-        <v>0.005380372900756165</v>
+        <v>0.005685735972681076</v>
       </c>
       <c r="T5">
-        <v>0.005380372900756165</v>
+        <v>0.005685735972681074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N6">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q6">
-        <v>59.1967559306999</v>
+        <v>111.8998516024618</v>
       </c>
       <c r="R6">
-        <v>59.1967559306999</v>
+        <v>1007.098664422156</v>
       </c>
       <c r="S6">
-        <v>0.02980354348398516</v>
+        <v>0.05221069891492775</v>
       </c>
       <c r="T6">
-        <v>0.02980354348398516</v>
+        <v>0.05221069891492774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N7">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q7">
-        <v>1052.888998930191</v>
+        <v>1068.426183924234</v>
       </c>
       <c r="R7">
-        <v>1052.888998930191</v>
+        <v>9615.835655318104</v>
       </c>
       <c r="S7">
-        <v>0.5300936270926921</v>
+        <v>0.4985107397628235</v>
       </c>
       <c r="T7">
-        <v>0.5300936270926921</v>
+        <v>0.4985107397628234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N8">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q8">
-        <v>57.31982190755815</v>
+        <v>67.30297838565467</v>
       </c>
       <c r="R8">
-        <v>57.31982190755815</v>
+        <v>605.726805470892</v>
       </c>
       <c r="S8">
-        <v>0.02885857135002628</v>
+        <v>0.0314025040270384</v>
       </c>
       <c r="T8">
-        <v>0.02885857135002628</v>
+        <v>0.0314025040270384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N9">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q9">
-        <v>683.1866413508576</v>
+        <v>747.1218805982694</v>
       </c>
       <c r="R9">
-        <v>683.1866413508576</v>
+        <v>6724.096925384424</v>
       </c>
       <c r="S9">
-        <v>0.3439611251166296</v>
+        <v>0.3485952394222182</v>
       </c>
       <c r="T9">
-        <v>0.3439611251166296</v>
+        <v>0.348595239422218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N10">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q10">
-        <v>0.8280990541437877</v>
+        <v>1.644073068183334</v>
       </c>
       <c r="R10">
-        <v>0.8280990541437877</v>
+        <v>14.79665761365</v>
       </c>
       <c r="S10">
-        <v>0.000416919572385249</v>
+        <v>0.0007670984610597382</v>
       </c>
       <c r="T10">
-        <v>0.000416919572385249</v>
+        <v>0.0007670984610597379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N11">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q11">
-        <v>14.72878657663601</v>
+        <v>15.69770369823333</v>
       </c>
       <c r="R11">
-        <v>14.72878657663601</v>
+        <v>141.2793332841</v>
       </c>
       <c r="S11">
-        <v>0.007415440665650646</v>
+        <v>0.007324299985275205</v>
       </c>
       <c r="T11">
-        <v>0.007415440665650646</v>
+        <v>0.007324299985275205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N12">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q12">
-        <v>0.8018427624802117</v>
+        <v>0.9888396864500001</v>
       </c>
       <c r="R12">
-        <v>0.8018427624802117</v>
+        <v>8.899557178050001</v>
       </c>
       <c r="S12">
-        <v>0.0004037004268759972</v>
+        <v>0.000461376940228549</v>
       </c>
       <c r="T12">
-        <v>0.0004037004268759972</v>
+        <v>0.0004613769402285489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N13">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q13">
-        <v>9.557047554575805</v>
+        <v>10.9769847319</v>
       </c>
       <c r="R13">
-        <v>9.557047554575805</v>
+        <v>98.7928625871</v>
       </c>
       <c r="S13">
-        <v>0.004811646819037881</v>
+        <v>0.005121687264314312</v>
       </c>
       <c r="T13">
-        <v>0.004811646819037881</v>
+        <v>0.00512168726431431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N14">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q14">
-        <v>2.516182050547889</v>
+        <v>4.860387314421778</v>
       </c>
       <c r="R14">
-        <v>2.516182050547889</v>
+        <v>43.743485829796</v>
       </c>
       <c r="S14">
-        <v>0.00126681166861436</v>
+        <v>0.002267779760644714</v>
       </c>
       <c r="T14">
-        <v>0.00126681166861436</v>
+        <v>0.002267779760644713</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N15">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q15">
-        <v>44.7534726975394</v>
+        <v>46.40725609887378</v>
       </c>
       <c r="R15">
-        <v>44.7534726975394</v>
+        <v>417.665304889864</v>
       </c>
       <c r="S15">
-        <v>0.02253184399432153</v>
+        <v>0.02165289087472694</v>
       </c>
       <c r="T15">
-        <v>0.02253184399432153</v>
+        <v>0.02165289087472694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N16">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q16">
-        <v>2.436402210844837</v>
+        <v>2.923315247374667</v>
       </c>
       <c r="R16">
-        <v>2.436402210844837</v>
+        <v>26.309837226372</v>
       </c>
       <c r="S16">
-        <v>0.001226645245905</v>
+        <v>0.001363972606115042</v>
       </c>
       <c r="T16">
-        <v>0.001226645245905</v>
+        <v>0.001363972606115042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N17">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q17">
-        <v>29.03912447759029</v>
+        <v>32.45135412410934</v>
       </c>
       <c r="R17">
-        <v>29.03912447759029</v>
+        <v>292.062187116984</v>
       </c>
       <c r="S17">
-        <v>0.01462020672413032</v>
+        <v>0.01514128799361426</v>
       </c>
       <c r="T17">
-        <v>0.01462020672413032</v>
+        <v>0.01514128799361425</v>
       </c>
     </row>
   </sheetData>
